--- a/LZ/Assets/Scripts/Data/Excels/StageData.xlsx
+++ b/LZ/Assets/Scripts/Data/Excels/StageData.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>StageId</t>
   </si>
   <si>
     <t>TileEventType</t>
+  </si>
+  <si>
+    <t>Grade</t>
   </si>
   <si>
     <t>StoryEventType</t>
@@ -32,6 +35,21 @@
   </si>
   <si>
     <t>Tutorial_2</t>
+  </si>
+  <si>
+    <t>NormalItems</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SpecialItem</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>Event</t>
   </si>
 </sst>
 </file>
@@ -143,10 +161,10 @@
     <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" textRotation="90" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" textRotation="90" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -384,9 +402,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="3.43"/>
-    <col customWidth="1" min="2" max="2" width="12.29"/>
-    <col customWidth="1" min="3" max="3" width="10.14"/>
-    <col customWidth="1" min="4" max="5" width="4.43"/>
+    <col customWidth="1" min="2" max="2" width="13.29"/>
+    <col customWidth="1" min="3" max="4" width="10.14"/>
+    <col customWidth="1" min="5" max="5" width="4.43"/>
     <col customWidth="1" min="6" max="6" width="3.43"/>
     <col customWidth="1" min="7" max="8" width="3.0"/>
     <col customWidth="1" min="9" max="9" width="4.14"/>
@@ -395,7 +413,7 @@
     <col customWidth="1" min="15" max="30" width="9.0"/>
   </cols>
   <sheetData>
-    <row r="1" ht="150.75" customHeight="1">
+    <row r="1" ht="76.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,25 +423,27 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="7"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
@@ -438,12 +458,12 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -472,12 +492,12 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -502,9 +522,15 @@
       <c r="AD3" s="9"/>
     </row>
     <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -530,10 +556,16 @@
       <c r="AD4" s="9"/>
     </row>
     <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -558,9 +590,15 @@
       <c r="AD5" s="9"/>
     </row>
     <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -586,9 +624,15 @@
       <c r="AD6" s="9"/>
     </row>
     <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
